--- a/Description SQL.xlsx
+++ b/Description SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\07.Project\Mektec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE1959A-6B9C-4271-B6EE-7CC4D71DBCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F93513-BB2A-400C-9559-A5C16D51CD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{0B05863F-D430-4E58-83ED-1D0791DD0A1B}"/>
   </bookViews>
@@ -133,6 +133,106 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA07D92-7267-44F1-9C4F-8F9137ABD47D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1714500" y="4210050"/>
+          <a:ext cx="1743075" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB20C07-9800-454E-AD20-B9ADA9245023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="4162425"/>
+          <a:ext cx="1609725" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -437,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B85E259-5808-4D8F-9150-D74D808CAFB4}">
   <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
